--- a/data/inputs/Load_profiles_desc.xlsx
+++ b/data/inputs/Load_profiles_desc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INES\GitHub\des_sim\data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leroytomas\Desktop\GitHub\DES_sim\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180012A9-FB20-43B6-998D-C346D2214A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE05DF61-396B-414B-8F6A-3A81CB27487F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C67EE741-80B9-4433-9EDB-7C308644A352}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>run</t>
   </si>
@@ -64,6 +55,12 @@
   </si>
   <si>
     <t>FLH</t>
+  </si>
+  <si>
+    <t>Appartments</t>
+  </si>
+  <si>
+    <t>avg. appartment floor area</t>
   </si>
 </sst>
 </file>
@@ -103,9 +100,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -119,11 +120,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABB2591A-5259-4389-9FF2-2A7D9420FCD3}" name="Table1" displayName="Table1" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{ABB2591A-5259-4389-9FF2-2A7D9420FCD3}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABB2591A-5259-4389-9FF2-2A7D9420FCD3}" name="Table1" displayName="Table1" ref="A1:H5" totalsRowShown="0">
+  <autoFilter ref="A1:H5" xr:uid="{ABB2591A-5259-4389-9FF2-2A7D9420FCD3}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BE019415-3263-40F0-947A-6D49A9AFA647}" name="run"/>
     <tableColumn id="2" xr3:uid="{DD6EAD8A-292E-48C9-AEA3-97B700C00574}" name="Floor area"/>
+    <tableColumn id="7" xr3:uid="{2C30DA51-FF2A-43D5-81AB-7D45DED579AE}" name="Appartments"/>
+    <tableColumn id="8" xr3:uid="{03172173-A8B9-4DFD-96C5-6F79C4C0DA97}" name="avg. appartment floor area" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Floor area]]/Table1[[#This Row],[Appartments]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{75E2A300-436A-4EE7-803B-146544C223FD}" name="Specific sh_demand (Kwh/m2/yr)"/>
     <tableColumn id="4" xr3:uid="{EED3D004-68EE-46E0-B532-F97A25AA9181}" name="specific dhw_demand(Kwh/m2/yr)"/>
     <tableColumn id="6" xr3:uid="{C4D54579-110A-4F3B-9C52-DF8D08AB512F}" name="FLH"/>
@@ -134,7 +139,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -430,22 +435,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2DA1CC-562D-42F6-B1D8-2C489A3EA23C}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,19 +459,25 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -473,17 +485,24 @@
         <v>10640</v>
       </c>
       <c r="C2">
+        <v>152</v>
+      </c>
+      <c r="D2">
+        <f>Table1[[#This Row],[Floor area]]/Table1[[#This Row],[Appartments]]</f>
+        <v>70</v>
+      </c>
+      <c r="E2">
         <v>26</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>21</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <f>(Table1[[#This Row],[Specific sh_demand (Kwh/m2/yr)]]+Table1[[#This Row],[specific dhw_demand(Kwh/m2/yr)]])*Table1[[#This Row],[Floor area]]</f>
         <v>500080</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -491,17 +510,24 @@
         <v>10640</v>
       </c>
       <c r="C3">
+        <v>152</v>
+      </c>
+      <c r="D3">
+        <f>Table1[[#This Row],[Floor area]]/Table1[[#This Row],[Appartments]]</f>
+        <v>70</v>
+      </c>
+      <c r="E3">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>21</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <f>(Table1[[#This Row],[Specific sh_demand (Kwh/m2/yr)]]+Table1[[#This Row],[specific dhw_demand(Kwh/m2/yr)]])*Table1[[#This Row],[Floor area]]</f>
         <v>425600</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -509,20 +535,27 @@
         <v>10640</v>
       </c>
       <c r="C4">
+        <v>152</v>
+      </c>
+      <c r="D4">
+        <f>Table1[[#This Row],[Floor area]]/Table1[[#This Row],[Appartments]]</f>
+        <v>70</v>
+      </c>
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>1300</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <f>(Table1[[#This Row],[Specific sh_demand (Kwh/m2/yr)]]+Table1[[#This Row],[specific dhw_demand(Kwh/m2/yr)]])*Table1[[#This Row],[Floor area]]</f>
         <v>223440</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -530,12 +563,19 @@
         <v>8360</v>
       </c>
       <c r="C5">
+        <v>152</v>
+      </c>
+      <c r="D5">
+        <f>Table1[[#This Row],[Floor area]]/Table1[[#This Row],[Appartments]]</f>
+        <v>55</v>
+      </c>
+      <c r="E5">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>11</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <f>(Table1[[#This Row],[Specific sh_demand (Kwh/m2/yr)]]+Table1[[#This Row],[specific dhw_demand(Kwh/m2/yr)]])*Table1[[#This Row],[Floor area]]</f>
         <v>175560</v>
       </c>
